--- a/Gemini/metrics-scenario-3/metrics_3_report3.xlsx
+++ b/Gemini/metrics-scenario-3/metrics_3_report3.xlsx
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>139</v>
@@ -691,13 +691,13 @@
         <v>12</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.48</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.04794520547945205</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -800,13 +800,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.2911954528786212</v>
+        <v>0.2982324899156583</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.05651501180583818</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7041715420345354</v>
+        <v>0.6949122827752761</v>
       </c>
     </row>
   </sheetData>
@@ -847,13 +847,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.2995145590508418</v>
+        <v>0.3043246856331203</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0909135872652018</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.740506329113924</v>
+        <v>0.7341772151898734</v>
       </c>
     </row>
   </sheetData>
